--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="list_single_protocol" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="162">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,10 @@
   </si>
   <si>
     <t>protocol -a mod -n smb -s "desc=#*&amp;%*()((&amp;@&amp;,workgroup=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1647,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="915" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list_all_protocol" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,9 +593,6 @@
   </si>
   <si>
     <t>RunningStatus</t>
-  </si>
-  <si>
-    <t>Enable:</t>
   </si>
   <si>
     <t>Description:</t>
@@ -1058,7 +1055,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,7 +1247,7 @@
         <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1258,7 +1255,7 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1459,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1607,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1641,19 +1638,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
         <v>148</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>149</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>150</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1664,28 +1661,28 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
         <v>153</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>154</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>155</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>156</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>157</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>158</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>159</v>
-      </c>
-      <c r="J3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1696,25 +1693,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
         <v>161</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>162</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>163</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>164</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>165</v>
-      </c>
-      <c r="I4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1725,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1739,10 +1736,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
         <v>167</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1753,10 +1750,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
         <v>167</v>
-      </c>
-      <c r="D7" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
@@ -1887,7 +1884,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -2156,13 +2153,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2203,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -2220,7 +2217,7 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2234,7 +2231,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -2278,7 +2275,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>133</v>
@@ -2292,7 +2289,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>134</v>
@@ -2306,7 +2303,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>

--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="915" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="915" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="list_all_protocol" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="179">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,9 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>out of range (1~65535)</t>
-  </si>
-  <si>
     <t>protocol -a mod -n ftp -s "startport=1023"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,339 +367,335 @@
     <t>out of range (1025~65535)</t>
   </si>
   <si>
+    <t>protocol -a mod -n smb -s "ntacl=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n smb -s "ntacl=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -t nasshare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a reset -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a enable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a disable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s "encrypt=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s "encrypt="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n nfs -s "port="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n smb -s "ntacl="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n nfs -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n smb -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a reset -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a enable -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a disable -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -t nasshare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -t nasshare -d 0 -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s "encrypt=sftp, port=65535,startport=65533,endport=65534,charset=zh_tw,dwrate=10000,uprate=10000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s "encrypt=standard, port=1,startport=1024,endport=1025,charset=utf8,dwrate=0,uprate=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s "encrypt=explicit, port=2,startport=1025,endport=1026,charset=ja_jp,dwrate=1,uprate=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveStart: 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEnd: 1025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEnd: 1026</t>
+  </si>
+  <si>
+    <t>PassiveEnd: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEnd: 65534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveStart: 1025</t>
+  </si>
+  <si>
+    <t>PassiveStart: 65534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveStart: 65533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp protocol can be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smb protocol can be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfs protocol can be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp protocol can be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smb protocol can be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfs protocol can be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n smb -s "desc=this action is test,workgroup=test_group"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n smb -s "desc=#*&amp;%*()((&amp;@&amp;,workgroup=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>all of the protocol should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolName</t>
+  </si>
+  <si>
+    <t>RunningStatus</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Workgroup:</t>
+  </si>
+  <si>
+    <t>NT ACL:</t>
+  </si>
+  <si>
+    <t>Admin Account:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>CmdPort:</t>
+  </si>
+  <si>
+    <t>EncryptType:</t>
+  </si>
+  <si>
+    <t>PassiveStart:</t>
+  </si>
+  <si>
+    <t>PassiveEnd:</t>
+  </si>
+  <si>
+    <t>Charset:</t>
+  </si>
+  <si>
+    <t>DwRate:</t>
+  </si>
+  <si>
+    <t>UpRate:</t>
+  </si>
+  <si>
+    <t>nfsd count:</t>
+  </si>
+  <si>
+    <t>mountd port:</t>
+  </si>
+  <si>
+    <t>PortmapperPort:</t>
+  </si>
+  <si>
+    <t>nfsd port:</t>
+  </si>
+  <si>
+    <t>rpc.statd port:</t>
+  </si>
+  <si>
+    <t>rpc.lockd port:</t>
+  </si>
+  <si>
+    <t>Protocol Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>protocol -a mod -n ftp -s "encrypt=implicit, port=65533,startport=65534,endport=65535,charset=ko_kr,dwrate=100000,uprate=100000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdPort: 65533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a reset</t>
+  </si>
+  <si>
+    <t>all of protocol settings should be reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp settings should be reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smb settings should be reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfs settings should be reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a enable -n nfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a enable -n ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a enable -n smb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol -a mod -n nfs -s "port=65534"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>protocol -a mod -n nfs -s "port=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>protocol -a mod -n smb -s "ntacl=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n nfs -s "port=65534"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n smb -s "ntacl=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -t nasshare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a reset -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a enable -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a disable -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid option for the command or the action</t>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s "encrypt=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s "encrypt="</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n nfs -s "port="</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n smb -s "ntacl="</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n nfs -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n smb -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a reset -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a enable -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a disable -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -t nasshare -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -t nasshare -d 0 -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s "encrypt=sftp, port=65535,startport=65533,endport=65534,charset=zh_tw,dwrate=10000,uprate=10000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s "encrypt=standard, port=1,startport=1024,endport=1025,charset=utf8,dwrate=0,uprate=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s "encrypt=explicit, port=2,startport=1025,endport=1026,charset=ja_jp,dwrate=1,uprate=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveStart: 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveEnd: 1025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveEnd: 1026</t>
-  </si>
-  <si>
-    <t>PassiveEnd: 65535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveEnd: 65534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveStart: 1025</t>
-  </si>
-  <si>
-    <t>PassiveStart: 65534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveStart: 65533</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftp protocol can be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smb protocol can be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfs protocol can be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftp protocol can be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smb protocol can be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfs protocol can be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n smb -s "desc=this action is test,workgroup=test_group"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a mod -n smb -s "desc=#*&amp;%*()((&amp;@&amp;,workgroup=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>all of the protocol should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolName</t>
-  </si>
-  <si>
-    <t>RunningStatus</t>
-  </si>
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>Workgroup:</t>
-  </si>
-  <si>
-    <t>NT ACL:</t>
-  </si>
-  <si>
-    <t>Admin Account:</t>
-  </si>
-  <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>CmdPort:</t>
-  </si>
-  <si>
-    <t>EncryptType:</t>
-  </si>
-  <si>
-    <t>PassiveStart:</t>
-  </si>
-  <si>
-    <t>PassiveEnd:</t>
-  </si>
-  <si>
-    <t>Charset:</t>
-  </si>
-  <si>
-    <t>DwRate:</t>
-  </si>
-  <si>
-    <t>UpRate:</t>
-  </si>
-  <si>
-    <t>nfsd count:</t>
-  </si>
-  <si>
-    <t>mountd port:</t>
-  </si>
-  <si>
-    <t>PortmapperPort:</t>
-  </si>
-  <si>
-    <t>nfsd port:</t>
-  </si>
-  <si>
-    <t>rpc.statd port:</t>
-  </si>
-  <si>
-    <t>rpc.lockd port:</t>
-  </si>
-  <si>
-    <t>Protocol Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>protocol -a mod -n ftp -s "encrypt=implicit, port=65533,startport=65534,endport=65535,charset=ko_kr,dwrate=100000,uprate=100000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdPort: 65533</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a reset</t>
-  </si>
-  <si>
-    <t>all of protocol settings should be reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftp settings should be reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smb settings should be reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfs settings should be reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a enable -n nfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a enable -n ftp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol -a enable -n smb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The mountd_port [65534] must be 1024~65533</t>
-  </si>
-  <si>
-    <t>The mountd_port [0] must be 1024~65533</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>invalid cmd_port (1,65535)</t>
   </si>
 </sst>
 </file>
@@ -745,9 +738,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1080,25 +1074,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>143</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>144</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1110,19 +1104,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,71 +1124,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>81</v>
       </c>
       <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1202,15 +1202,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1242,39 +1242,41 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1362,7 +1364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -1400,10 +1402,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1411,39 +1413,39 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1476,122 +1478,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1638,19 +1640,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1661,28 +1663,28 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>153</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>154</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>155</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>156</v>
-      </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1693,25 +1695,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
         <v>160</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>162</v>
-      </c>
-      <c r="G4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1722,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1736,10 +1738,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1750,10 +1752,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1796,19 +1798,19 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>38</v>
@@ -1823,10 +1825,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>20</v>
@@ -1840,7 +1842,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -1855,10 +1857,10 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
@@ -1872,7 +1874,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
@@ -1884,13 +1886,13 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1904,7 +1906,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
@@ -1919,10 +1921,10 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>27</v>
@@ -1993,7 +1995,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>38</v>
@@ -2010,7 +2012,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -2036,7 +2038,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2153,13 +2155,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2205,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -2217,7 +2219,7 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2231,7 +2233,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -2275,10 +2277,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -2289,10 +2291,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2303,10 +2305,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -2355,7 +2357,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -2369,7 +2371,7 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2383,7 +2385,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>

--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>invalid cmd_port (1,65535)</t>
+  </si>
+  <si>
+    <t>protocol -a mod -n smb -s "desc=test,workgroup=invalid_group"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1104,15 +1108,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1278,7 +1282,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -1286,7 +1290,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -1294,7 +1298,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -1302,7 +1306,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -1310,7 +1314,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -1318,7 +1322,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -1326,7 +1330,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -1334,7 +1338,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -1342,7 +1346,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -1350,7 +1354,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1358,7 +1362,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
@@ -1366,9 +1370,17 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>77</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
     </row>

--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="179">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,10 +696,6 @@
   </si>
   <si>
     <t>invalid cmd_port (1,65535)</t>
-  </si>
-  <si>
-    <t>protocol -a mod -n smb -s "desc=test,workgroup=invalid_group"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1108,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,7 +1278,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -1290,7 +1286,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -1298,7 +1294,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -1306,7 +1302,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -1314,7 +1310,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -1322,7 +1318,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -1330,7 +1326,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -1338,7 +1334,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -1346,7 +1342,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -1354,7 +1350,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1362,7 +1358,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
@@ -1370,17 +1366,9 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
         <v>70</v>
       </c>
     </row>

--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="915" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="915" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="list_all_protocol" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="181">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,14 @@
   </si>
   <si>
     <t>invalid cmd_port (1,65535)</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1104,67 +1112,85 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1172,10 +1198,13 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1183,192 +1212,264 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>176</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>76</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1380,71 +1481,92 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.375" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="2" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>95</v>
       </c>
       <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1456,143 +1578,191 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>115</v>
       </c>
       <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
         <v>97</v>
       </c>
     </row>
